--- a/SchedulingData/dynamic15/pso/scheduling2_9.xlsx
+++ b/SchedulingData/dynamic15/pso/scheduling2_9.xlsx
@@ -462,78 +462,78 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>231.72</v>
+        <v>210.58</v>
       </c>
       <c r="D2" t="n">
-        <v>297.26</v>
+        <v>266.64</v>
       </c>
       <c r="E2" t="n">
-        <v>11.904</v>
+        <v>11.536</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>248.48</v>
+        <v>213.34</v>
       </c>
       <c r="D3" t="n">
-        <v>304.44</v>
+        <v>272.46</v>
       </c>
       <c r="E3" t="n">
-        <v>11.236</v>
+        <v>11.444</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>207.74</v>
+        <v>266.64</v>
       </c>
       <c r="D4" t="n">
-        <v>269.72</v>
+        <v>320.06</v>
       </c>
       <c r="E4" t="n">
-        <v>16.048</v>
+        <v>7.324</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>246.9</v>
+        <v>241.26</v>
       </c>
       <c r="D5" t="n">
-        <v>309.38</v>
+        <v>300.12</v>
       </c>
       <c r="E5" t="n">
-        <v>10.692</v>
+        <v>11.628</v>
       </c>
     </row>
     <row r="6">
@@ -542,112 +542,112 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>304.44</v>
+        <v>203.2</v>
       </c>
       <c r="D6" t="n">
-        <v>362.24</v>
+        <v>280.18</v>
       </c>
       <c r="E6" t="n">
-        <v>8.055999999999999</v>
+        <v>11.672</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>212.64</v>
+        <v>320.06</v>
       </c>
       <c r="D7" t="n">
-        <v>265.24</v>
+        <v>367.66</v>
       </c>
       <c r="E7" t="n">
-        <v>11.796</v>
+        <v>5.164</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>362.24</v>
+        <v>367.66</v>
       </c>
       <c r="D8" t="n">
-        <v>412.84</v>
+        <v>426.6</v>
       </c>
       <c r="E8" t="n">
-        <v>4.636</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>309.38</v>
+        <v>426.6</v>
       </c>
       <c r="D9" t="n">
-        <v>361</v>
+        <v>521.2</v>
       </c>
       <c r="E9" t="n">
-        <v>6.66</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>269.72</v>
+        <v>235.88</v>
       </c>
       <c r="D10" t="n">
-        <v>341.2</v>
+        <v>278.36</v>
       </c>
       <c r="E10" t="n">
-        <v>12.52</v>
+        <v>14.324</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>230.34</v>
+        <v>300.12</v>
       </c>
       <c r="D11" t="n">
-        <v>268.34</v>
+        <v>361.68</v>
       </c>
       <c r="E11" t="n">
-        <v>13.856</v>
+        <v>8.092000000000001</v>
       </c>
     </row>
     <row r="12">
@@ -656,55 +656,55 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>361</v>
+        <v>272.46</v>
       </c>
       <c r="D12" t="n">
-        <v>423.72</v>
+        <v>332.44</v>
       </c>
       <c r="E12" t="n">
-        <v>3.488</v>
+        <v>7.556</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>268.34</v>
+        <v>278.36</v>
       </c>
       <c r="D13" t="n">
-        <v>314.3</v>
+        <v>326.88</v>
       </c>
       <c r="E13" t="n">
-        <v>10.88</v>
+        <v>11.112</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>341.2</v>
+        <v>234</v>
       </c>
       <c r="D14" t="n">
-        <v>390.26</v>
+        <v>310.52</v>
       </c>
       <c r="E14" t="n">
-        <v>9.244</v>
+        <v>11.088</v>
       </c>
     </row>
     <row r="15">
@@ -713,98 +713,98 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>423.72</v>
+        <v>332.44</v>
       </c>
       <c r="D15" t="n">
-        <v>468.34</v>
+        <v>380.74</v>
       </c>
       <c r="E15" t="n">
-        <v>1.156</v>
+        <v>4.836</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>468.34</v>
+        <v>280.18</v>
       </c>
       <c r="D16" t="n">
-        <v>542.9299999999999</v>
+        <v>332.98</v>
       </c>
       <c r="E16" t="n">
-        <v>30</v>
+        <v>9.512</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>314.3</v>
+        <v>361.68</v>
       </c>
       <c r="D17" t="n">
-        <v>373.1</v>
+        <v>410.78</v>
       </c>
       <c r="E17" t="n">
-        <v>7.14</v>
+        <v>5.812</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>390.26</v>
+        <v>310.52</v>
       </c>
       <c r="D18" t="n">
-        <v>436.8</v>
+        <v>366.26</v>
       </c>
       <c r="E18" t="n">
-        <v>6.7</v>
+        <v>8.124000000000001</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>265.24</v>
+        <v>410.78</v>
       </c>
       <c r="D19" t="n">
-        <v>314.5</v>
+        <v>456.28</v>
       </c>
       <c r="E19" t="n">
-        <v>8.98</v>
+        <v>2.392</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -812,10 +812,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>412.84</v>
+        <v>456.28</v>
       </c>
       <c r="D20" t="n">
-        <v>470.57</v>
+        <v>518.5</v>
       </c>
       <c r="E20" t="n">
         <v>30</v>
@@ -823,21 +823,21 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>470.57</v>
+        <v>518.5</v>
       </c>
       <c r="D21" t="n">
-        <v>554.27</v>
+        <v>571.9</v>
       </c>
       <c r="E21" t="n">
-        <v>24.78</v>
+        <v>26.36</v>
       </c>
     </row>
     <row r="22">
@@ -846,112 +846,112 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>297.26</v>
+        <v>366.26</v>
       </c>
       <c r="D22" t="n">
-        <v>346.46</v>
+        <v>450.4</v>
       </c>
       <c r="E22" t="n">
-        <v>8.624000000000001</v>
+        <v>4.78</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>314.5</v>
+        <v>521.2</v>
       </c>
       <c r="D23" t="n">
-        <v>355.62</v>
+        <v>586.12</v>
       </c>
       <c r="E23" t="n">
-        <v>5.508</v>
+        <v>27.668</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>554.27</v>
+        <v>380.74</v>
       </c>
       <c r="D24" t="n">
-        <v>616.63</v>
+        <v>442.97</v>
       </c>
       <c r="E24" t="n">
-        <v>21.644</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>373.1</v>
+        <v>442.97</v>
       </c>
       <c r="D25" t="n">
-        <v>447.58</v>
+        <v>522.37</v>
       </c>
       <c r="E25" t="n">
-        <v>3.292</v>
+        <v>24.72</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>542.9299999999999</v>
+        <v>326.88</v>
       </c>
       <c r="D26" t="n">
-        <v>577.63</v>
+        <v>374.68</v>
       </c>
       <c r="E26" t="n">
-        <v>27.72</v>
+        <v>7.472</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>577.63</v>
+        <v>450.4</v>
       </c>
       <c r="D27" t="n">
-        <v>627.4299999999999</v>
+        <v>521.0599999999999</v>
       </c>
       <c r="E27" t="n">
-        <v>24.86</v>
+        <v>0.804</v>
       </c>
     </row>
     <row r="28">
@@ -960,55 +960,55 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>346.46</v>
+        <v>521.0599999999999</v>
       </c>
       <c r="D28" t="n">
-        <v>422.52</v>
+        <v>620.95</v>
       </c>
       <c r="E28" t="n">
-        <v>5.148</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>447.58</v>
+        <v>620.95</v>
       </c>
       <c r="D29" t="n">
-        <v>512.9</v>
+        <v>677.35</v>
       </c>
       <c r="E29" t="n">
-        <v>30</v>
+        <v>26.04</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>512.9</v>
+        <v>522.37</v>
       </c>
       <c r="D30" t="n">
-        <v>574.3</v>
+        <v>577.5700000000001</v>
       </c>
       <c r="E30" t="n">
-        <v>26.04</v>
+        <v>20.82</v>
       </c>
     </row>
     <row r="31">
@@ -1017,17 +1017,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>616.63</v>
+        <v>332.98</v>
       </c>
       <c r="D31" t="n">
-        <v>676.61</v>
+        <v>385.78</v>
       </c>
       <c r="E31" t="n">
-        <v>17.756</v>
+        <v>5.872</v>
       </c>
     </row>
     <row r="32">
@@ -1036,17 +1036,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>422.52</v>
+        <v>677.35</v>
       </c>
       <c r="D32" t="n">
-        <v>489.12</v>
+        <v>723.37</v>
       </c>
       <c r="E32" t="n">
-        <v>2.068</v>
+        <v>22.568</v>
       </c>
     </row>
     <row r="33">
@@ -1055,90 +1055,90 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>627.4299999999999</v>
+        <v>577.5700000000001</v>
       </c>
       <c r="D33" t="n">
-        <v>683.39</v>
+        <v>629.45</v>
       </c>
       <c r="E33" t="n">
-        <v>20.884</v>
+        <v>17.752</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>683.39</v>
+        <v>586.12</v>
       </c>
       <c r="D34" t="n">
-        <v>718.01</v>
+        <v>644.3200000000001</v>
       </c>
       <c r="E34" t="n">
-        <v>18.552</v>
+        <v>23.468</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>436.8</v>
+        <v>385.78</v>
       </c>
       <c r="D35" t="n">
-        <v>484.5</v>
+        <v>440.38</v>
       </c>
       <c r="E35" t="n">
-        <v>3.06</v>
+        <v>3.012</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>355.62</v>
+        <v>440.38</v>
       </c>
       <c r="D36" t="n">
-        <v>420.04</v>
+        <v>484.12</v>
       </c>
       <c r="E36" t="n">
-        <v>1.196</v>
+        <v>0.768</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>420.04</v>
+        <v>484.12</v>
       </c>
       <c r="D37" t="n">
-        <v>504.45</v>
+        <v>559.38</v>
       </c>
       <c r="E37" t="n">
         <v>30</v>
@@ -1146,78 +1146,78 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>504.45</v>
+        <v>559.38</v>
       </c>
       <c r="D38" t="n">
-        <v>569.95</v>
+        <v>621.02</v>
       </c>
       <c r="E38" t="n">
-        <v>26.62</v>
+        <v>26.496</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>676.61</v>
+        <v>644.3200000000001</v>
       </c>
       <c r="D39" t="n">
-        <v>735.8099999999999</v>
+        <v>710.38</v>
       </c>
       <c r="E39" t="n">
-        <v>12.476</v>
+        <v>20.492</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>574.3</v>
+        <v>629.45</v>
       </c>
       <c r="D40" t="n">
-        <v>647.72</v>
+        <v>664.0700000000001</v>
       </c>
       <c r="E40" t="n">
-        <v>21.828</v>
+        <v>15.42</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>569.95</v>
+        <v>621.02</v>
       </c>
       <c r="D41" t="n">
-        <v>647.03</v>
+        <v>657.0599999999999</v>
       </c>
       <c r="E41" t="n">
-        <v>22.532</v>
+        <v>23.532</v>
       </c>
     </row>
     <row r="42">
@@ -1226,112 +1226,112 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>484.5</v>
+        <v>571.9</v>
       </c>
       <c r="D42" t="n">
-        <v>579.6799999999999</v>
+        <v>633.14</v>
       </c>
       <c r="E42" t="n">
-        <v>30</v>
+        <v>23.816</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>579.6799999999999</v>
+        <v>664.0700000000001</v>
       </c>
       <c r="D43" t="n">
-        <v>657.9</v>
+        <v>707.17</v>
       </c>
       <c r="E43" t="n">
-        <v>26.828</v>
+        <v>12.24</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>647.72</v>
+        <v>633.14</v>
       </c>
       <c r="D44" t="n">
-        <v>691.46</v>
+        <v>695.4</v>
       </c>
       <c r="E44" t="n">
-        <v>19.584</v>
+        <v>20.68</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>489.12</v>
+        <v>374.68</v>
       </c>
       <c r="D45" t="n">
-        <v>556.98</v>
+        <v>433.78</v>
       </c>
       <c r="E45" t="n">
-        <v>30</v>
+        <v>4.192</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>556.98</v>
+        <v>433.78</v>
       </c>
       <c r="D46" t="n">
-        <v>634.22</v>
+        <v>496.26</v>
       </c>
       <c r="E46" t="n">
-        <v>26.416</v>
+        <v>0.544</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>657.9</v>
+        <v>496.26</v>
       </c>
       <c r="D47" t="n">
-        <v>700.7</v>
+        <v>586.87</v>
       </c>
       <c r="E47" t="n">
-        <v>24.668</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
